--- a/H1299_143B_prot-nucl-quant/acid-hydrolysis/conc.xlsx
+++ b/H1299_143B_prot-nucl-quant/acid-hydrolysis/conc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>cell_line</t>
   </si>
@@ -25,55 +25,67 @@
     <t>replicate</t>
   </si>
   <si>
-    <t>cell_numb</t>
-  </si>
-  <si>
-    <t>cell_vol</t>
-  </si>
-  <si>
-    <t>Gln_frac</t>
-  </si>
-  <si>
-    <t>Alanine pos</t>
-  </si>
-  <si>
-    <t>Arginine pos</t>
-  </si>
-  <si>
-    <t>Aspartate neg</t>
-  </si>
-  <si>
-    <t>Glutamate neg</t>
-  </si>
-  <si>
-    <t>Isoleucine pos</t>
-  </si>
-  <si>
-    <t>Leucine pos</t>
-  </si>
-  <si>
-    <t>Lysine pos</t>
-  </si>
-  <si>
-    <t>Phenylalanine pos</t>
-  </si>
-  <si>
-    <t>Proline pos</t>
-  </si>
-  <si>
-    <t>Serine neg</t>
-  </si>
-  <si>
-    <t>Threonine neg</t>
-  </si>
-  <si>
-    <t>Tyrosine pos</t>
-  </si>
-  <si>
-    <t>Valine pos</t>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>Aspartate</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>Valine</t>
   </si>
   <si>
     <t>Asparagine</t>
+  </si>
+  <si>
+    <t>Guanine</t>
+  </si>
+  <si>
+    <t>Adenine</t>
+  </si>
+  <si>
+    <t>Purines</t>
+  </si>
+  <si>
+    <t>Uracil</t>
+  </si>
+  <si>
+    <t>Thymine</t>
+  </si>
+  <si>
+    <t>Cytosine</t>
+  </si>
+  <si>
+    <t>Pyrimidines</t>
   </si>
   <si>
     <t>143B</t>
@@ -437,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,273 +516,333 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>472133.3333333332</v>
+        <v>36098.23107299919</v>
       </c>
       <c r="F2">
-        <v>2.517313233333333</v>
+        <v>23099.65043966035</v>
       </c>
       <c r="G2">
-        <v>0.9853865327889154</v>
+        <v>33960.42814759495</v>
       </c>
       <c r="H2">
-        <v>33311.16613339338</v>
+        <v>91324.78905857689</v>
       </c>
       <c r="I2">
-        <v>21095.77700376133</v>
+        <v>15916.62293146726</v>
       </c>
       <c r="J2">
-        <v>31253.57131330993</v>
+        <v>37810.17298343738</v>
       </c>
       <c r="K2">
-        <v>87043.58077108364</v>
+        <v>34558.06381289302</v>
       </c>
       <c r="L2">
-        <v>14324.54794202368</v>
+        <v>15564.21885860848</v>
       </c>
       <c r="M2">
-        <v>34714.64866380576</v>
+        <v>22447.86329010812</v>
       </c>
       <c r="N2">
-        <v>31596.68682678762</v>
+        <v>29574.2824549267</v>
       </c>
       <c r="O2">
-        <v>14217.52329764641</v>
+        <v>26401.96641552565</v>
       </c>
       <c r="P2">
-        <v>20744.44151838499</v>
+        <v>9013.009872010158</v>
       </c>
       <c r="Q2">
-        <v>28265.33856876134</v>
+        <v>15868.23216679095</v>
       </c>
       <c r="R2">
-        <v>24561.25743756631</v>
+        <v>14209.64105841399</v>
       </c>
       <c r="S2">
-        <v>8275.798799852542</v>
+        <v>6284.602352681984</v>
       </c>
       <c r="T2">
-        <v>14082.70880095404</v>
+        <v>6635.969121263619</v>
       </c>
       <c r="U2">
-        <v>13061.32404733638</v>
+        <v>12920.5714739456</v>
+      </c>
+      <c r="V2">
+        <v>3595.070866940313</v>
+      </c>
+      <c r="W2">
+        <v>1478.413140397929</v>
+      </c>
+      <c r="X2">
+        <v>4473.072621764174</v>
+      </c>
+      <c r="Y2">
+        <v>9444.422850133124</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>425233.3333333332</v>
+        <v>27355.66628730757</v>
       </c>
       <c r="F3">
-        <v>2.270578966666667</v>
+        <v>16261.8279771579</v>
       </c>
       <c r="G3">
-        <v>0.9853589791299839</v>
+        <v>25489.10219266202</v>
       </c>
       <c r="H3">
-        <v>42610.48522197944</v>
+        <v>77495.03807127442</v>
       </c>
       <c r="I3">
-        <v>26698.94126151452</v>
+        <v>10167.10590764612</v>
       </c>
       <c r="J3">
-        <v>39659.24065875243</v>
+        <v>27536.97585614247</v>
       </c>
       <c r="K3">
-        <v>105545.8276048423</v>
+        <v>24565.95348211757</v>
       </c>
       <c r="L3">
-        <v>16669.42915724303</v>
+        <v>11077.03443193157</v>
       </c>
       <c r="M3">
-        <v>43565.58996259586</v>
+        <v>16880.37966124463</v>
       </c>
       <c r="N3">
-        <v>39764.94875405798</v>
+        <v>22394.45388418575</v>
       </c>
       <c r="O3">
-        <v>17766.80068453686</v>
+        <v>19589.16187695416</v>
       </c>
       <c r="P3">
-        <v>26608.4592352933</v>
+        <v>6652.724236793548</v>
       </c>
       <c r="Q3">
-        <v>37411.08274386766</v>
+        <v>9630.635839021026</v>
       </c>
       <c r="R3">
-        <v>29959.73412183945</v>
+        <v>10547.78665442671</v>
       </c>
       <c r="S3">
-        <v>11161.63946045277</v>
+        <v>7981.282937255702</v>
       </c>
       <c r="T3">
-        <v>17088.45491088404</v>
+        <v>7893.805417956027</v>
       </c>
       <c r="U3">
-        <v>16478.59279030337</v>
+        <v>15875.08835521173</v>
+      </c>
+      <c r="V3">
+        <v>2521.056349273599</v>
+      </c>
+      <c r="W3">
+        <v>1885.698431929707</v>
+      </c>
+      <c r="X3">
+        <v>2974.745623034401</v>
+      </c>
+      <c r="Y3">
+        <v>6262.537141958896</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>36479.60103987338</v>
+      </c>
+      <c r="F4">
+        <v>23925.85259446574</v>
+      </c>
+      <c r="G4">
+        <v>34311.18359967283</v>
+      </c>
+      <c r="H4">
+        <v>92310.9151833996</v>
+      </c>
+      <c r="I4">
+        <v>16889.91498695767</v>
+      </c>
+      <c r="J4">
+        <v>38796.79715183742</v>
+      </c>
+      <c r="K4">
+        <v>35666.04318535225</v>
+      </c>
+      <c r="L4">
+        <v>16011.31660239918</v>
+      </c>
+      <c r="M4">
+        <v>22905.08160380221</v>
+      </c>
+      <c r="N4">
+        <v>32827.27936717157</v>
+      </c>
+      <c r="O4">
+        <v>27692.64402021912</v>
+      </c>
+      <c r="P4">
+        <v>9161.662290753926</v>
+      </c>
+      <c r="Q4">
+        <v>16749.25839705013</v>
+      </c>
+      <c r="R4">
+        <v>14426.54442916842</v>
+      </c>
+      <c r="S4">
+        <v>7063.877241474359</v>
+      </c>
+      <c r="T4">
+        <v>7406.787505226996</v>
+      </c>
+      <c r="U4">
+        <v>14470.66474670136</v>
+      </c>
+      <c r="V4">
+        <v>3529.98461924515</v>
+      </c>
+      <c r="W4">
+        <v>1764.475289161655</v>
+      </c>
+      <c r="X4">
+        <v>4717.959972476537</v>
+      </c>
+      <c r="Y4">
+        <v>9557.198111316204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>44601.62847685253</v>
+      </c>
+      <c r="F5">
+        <v>26903.88956540165</v>
+      </c>
+      <c r="G5">
+        <v>41098.61383558998</v>
+      </c>
+      <c r="H5">
+        <v>104947.7564307536</v>
+      </c>
+      <c r="I5">
+        <v>15959.34560188967</v>
+      </c>
+      <c r="J5">
+        <v>43493.39321164828</v>
+      </c>
+      <c r="K5">
+        <v>40148.57726925894</v>
+      </c>
+      <c r="L5">
+        <v>17808.81991873355</v>
+      </c>
+      <c r="M5">
+        <v>27427.78358700986</v>
+      </c>
+      <c r="N5">
+        <v>37079.50995888015</v>
+      </c>
+      <c r="O5">
+        <v>29722.01226680482</v>
+      </c>
+      <c r="P5">
+        <v>11245.04213723214</v>
+      </c>
+      <c r="Q5">
+        <v>15853.35515830663</v>
+      </c>
+      <c r="R5">
+        <v>17082.43085411754</v>
+      </c>
+      <c r="S5">
+        <v>7621.780743564674</v>
+      </c>
+      <c r="T5">
+        <v>7995.4090138913</v>
+      </c>
+      <c r="U5">
+        <v>15617.18975745597</v>
+      </c>
+      <c r="V5">
+        <v>3585.930220239311</v>
+      </c>
+      <c r="W5">
+        <v>1802.669408418333</v>
+      </c>
+      <c r="X5">
+        <v>4969.081615359429</v>
+      </c>
+      <c r="Y5">
+        <v>10069.78471487047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>870366.6666666664</v>
-      </c>
-      <c r="F4">
-        <v>4.020449733333333</v>
-      </c>
-      <c r="G4">
-        <v>0.9841350241274233</v>
-      </c>
-      <c r="H4">
-        <v>37453.51717460969</v>
-      </c>
-      <c r="I4">
-        <v>25171.71075150362</v>
-      </c>
-      <c r="J4">
-        <v>28133.43807163868</v>
-      </c>
-      <c r="K4">
-        <v>86120.20787767108</v>
-      </c>
-      <c r="L4">
-        <v>17345.4225707777</v>
-      </c>
-      <c r="M4">
-        <v>39288.18689207872</v>
-      </c>
-      <c r="N4">
-        <v>36688.33427634799</v>
-      </c>
-      <c r="O4">
-        <v>16233.33829553143</v>
-      </c>
-      <c r="P4">
-        <v>22859.5346798297</v>
-      </c>
-      <c r="Q4">
-        <v>32940.43683620775</v>
-      </c>
-      <c r="R4">
-        <v>26851.80184073359</v>
-      </c>
-      <c r="S4">
-        <v>10706.74987546196</v>
-      </c>
-      <c r="T4">
-        <v>18732.27691129978</v>
-      </c>
-      <c r="U4">
-        <v>26017.62615762926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>414133.3333333333</v>
-      </c>
-      <c r="F5">
-        <v>2.9880707</v>
-      </c>
-      <c r="G5">
-        <v>0.9960493628455759</v>
-      </c>
-      <c r="H5">
-        <v>27953.00295203288</v>
-      </c>
-      <c r="I5">
-        <v>20283.65496021847</v>
-      </c>
-      <c r="J5">
-        <v>28944.18994172667</v>
-      </c>
-      <c r="K5">
-        <v>72620.22813513307</v>
-      </c>
-      <c r="L5">
-        <v>11905.05243790464</v>
-      </c>
-      <c r="M5">
-        <v>33068.09265100143</v>
-      </c>
-      <c r="N5">
-        <v>29689.67660228001</v>
-      </c>
-      <c r="O5">
-        <v>13841.59338335027</v>
-      </c>
-      <c r="P5">
-        <v>18046.71343902116</v>
-      </c>
-      <c r="Q5">
-        <v>29511.02012322688</v>
-      </c>
-      <c r="R5">
-        <v>23177.86803662281</v>
-      </c>
-      <c r="S5">
-        <v>8310.878911196214</v>
-      </c>
-      <c r="T5">
-        <v>12808.98930218562</v>
-      </c>
-      <c r="U5">
-        <v>13764.56452404116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -779,120 +851,1068 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>429100</v>
+        <v>49600.64302171062</v>
       </c>
       <c r="F6">
-        <v>3.0466908</v>
+        <v>31884.96871678707</v>
       </c>
       <c r="G6">
-        <v>0.9962195777713322</v>
+        <v>45968.46715121766</v>
       </c>
       <c r="H6">
-        <v>29296.98265300816</v>
+        <v>117953.4223352673</v>
       </c>
       <c r="I6">
-        <v>22188.84487793563</v>
+        <v>20643.16894334378</v>
       </c>
       <c r="J6">
-        <v>30330.02388856008</v>
+        <v>51868.38257527296</v>
       </c>
       <c r="K6">
-        <v>75669.1366715663</v>
+        <v>47567.27388171297</v>
       </c>
       <c r="L6">
-        <v>13920.39531472753</v>
+        <v>21054.74063853805</v>
       </c>
       <c r="M6">
-        <v>36139.43091548993</v>
+        <v>31144.26256569787</v>
       </c>
       <c r="N6">
-        <v>32400.73016802018</v>
+        <v>43980.71854083586</v>
       </c>
       <c r="O6">
-        <v>15070.2460745212</v>
+        <v>35157.94326453712</v>
       </c>
       <c r="P6">
-        <v>19086.0811595362</v>
+        <v>12529.2609200825</v>
       </c>
       <c r="Q6">
-        <v>31982.21334816129</v>
+        <v>22243.15713824948</v>
       </c>
       <c r="R6">
-        <v>25241.17281447626</v>
+        <v>19207.22832565598</v>
       </c>
       <c r="S6">
-        <v>9103.698294884314</v>
+        <v>8203.834355725134</v>
       </c>
       <c r="T6">
-        <v>14827.31357879111</v>
+        <v>8664.253147352087</v>
       </c>
       <c r="U6">
-        <v>14687.63921633853</v>
+        <v>16868.08750307722</v>
+      </c>
+      <c r="V6">
+        <v>4551.910176261373</v>
+      </c>
+      <c r="W6">
+        <v>1943.815267570518</v>
+      </c>
+      <c r="X6">
+        <v>6168.027814832134</v>
+      </c>
+      <c r="Y6">
+        <v>12663.75325866402</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>33629.18416737518</v>
+      </c>
+      <c r="F7">
+        <v>21307.96550235484</v>
+      </c>
+      <c r="G7">
+        <v>31910.64098944964</v>
+      </c>
+      <c r="H7">
+        <v>93736.30404850602</v>
+      </c>
+      <c r="I7">
+        <v>13405.77292649566</v>
+      </c>
+      <c r="J7">
+        <v>35334.99410086634</v>
+      </c>
+      <c r="K7">
+        <v>31578.99511120202</v>
+      </c>
+      <c r="L7">
+        <v>14436.84149633897</v>
+      </c>
+      <c r="M7">
+        <v>21253.33155317217</v>
+      </c>
+      <c r="N7">
+        <v>31173.01973188696</v>
+      </c>
+      <c r="O7">
+        <v>24999.24683417639</v>
+      </c>
+      <c r="P7">
+        <v>9710.615324043685</v>
+      </c>
+      <c r="Q7">
+        <v>13168.85243609601</v>
+      </c>
+      <c r="R7">
+        <v>13146.11919113658</v>
+      </c>
+      <c r="S7">
+        <v>7056.191032867545</v>
+      </c>
+      <c r="T7">
+        <v>7521.15500666779</v>
+      </c>
+      <c r="U7">
+        <v>14577.34603953534</v>
+      </c>
+      <c r="V7">
+        <v>3721.954154967636</v>
+      </c>
+      <c r="W7">
+        <v>1702.426722574779</v>
+      </c>
+      <c r="X7">
+        <v>4394.458935597118</v>
+      </c>
+      <c r="Y7">
+        <v>9392.881516982317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>37040.06610856171</v>
+      </c>
+      <c r="F8">
+        <v>25232.9515089523</v>
+      </c>
+      <c r="G8">
+        <v>28355.78002642423</v>
+      </c>
+      <c r="H8">
+        <v>86585.44057803167</v>
+      </c>
+      <c r="I8">
+        <v>17720.60166389064</v>
+      </c>
+      <c r="J8">
+        <v>39208.89927189453</v>
+      </c>
+      <c r="K8">
+        <v>36770.69412673039</v>
+      </c>
+      <c r="L8">
+        <v>16297.39402811727</v>
+      </c>
+      <c r="M8">
+        <v>22756.47826008963</v>
+      </c>
+      <c r="N8">
+        <v>33306.81417058654</v>
+      </c>
+      <c r="O8">
+        <v>26997.59020715114</v>
+      </c>
+      <c r="P8">
+        <v>10779.36946991268</v>
+      </c>
+      <c r="Q8">
+        <v>18691.72082585768</v>
+      </c>
+      <c r="R8">
+        <v>26992.16560610087</v>
+      </c>
+      <c r="S8">
+        <v>6708.926121932313</v>
+      </c>
+      <c r="T8">
+        <v>6950.200685583862</v>
+      </c>
+      <c r="U8">
+        <v>13659.12680751618</v>
+      </c>
+      <c r="V8">
+        <v>3403.830368525725</v>
+      </c>
+      <c r="W8">
+        <v>1728.299845870734</v>
+      </c>
+      <c r="X8">
+        <v>5519.063602143479</v>
+      </c>
+      <c r="Y8">
+        <v>10621.90189727359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>38349.68342459415</v>
+      </c>
+      <c r="F9">
+        <v>25944.78859634681</v>
+      </c>
+      <c r="G9">
+        <v>28128.10848152007</v>
+      </c>
+      <c r="H9">
+        <v>87129.66031210904</v>
+      </c>
+      <c r="I9">
+        <v>17860.89094616475</v>
+      </c>
+      <c r="J9">
+        <v>40273.66200705531</v>
+      </c>
+      <c r="K9">
+        <v>37617.30608658221</v>
+      </c>
+      <c r="L9">
+        <v>16651.24207095409</v>
+      </c>
+      <c r="M9">
+        <v>23379.3948856843</v>
+      </c>
+      <c r="N9">
+        <v>33519.44476228607</v>
+      </c>
+      <c r="O9">
+        <v>27546.96981451549</v>
+      </c>
+      <c r="P9">
+        <v>11002.84194223102</v>
+      </c>
+      <c r="Q9">
+        <v>19334.97215028652</v>
+      </c>
+      <c r="R9">
+        <v>25379.20131097391</v>
+      </c>
+      <c r="S9">
+        <v>8155.28492579339</v>
+      </c>
+      <c r="T9">
+        <v>8258.028469583482</v>
+      </c>
+      <c r="U9">
+        <v>16413.31339537687</v>
+      </c>
+      <c r="V9">
+        <v>3471.164709495442</v>
+      </c>
+      <c r="W9">
+        <v>2127.66309443805</v>
+      </c>
+      <c r="X9">
+        <v>5684.630088413053</v>
+      </c>
+      <c r="Y9">
+        <v>11008.91377101186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>36970.80199067321</v>
+      </c>
+      <c r="F10">
+        <v>24337.39214921174</v>
+      </c>
+      <c r="G10">
+        <v>27916.42570697174</v>
+      </c>
+      <c r="H10">
+        <v>84645.52274287259</v>
+      </c>
+      <c r="I10">
+        <v>16454.77510227774</v>
+      </c>
+      <c r="J10">
+        <v>38381.99939728632</v>
+      </c>
+      <c r="K10">
+        <v>35677.00261573137</v>
+      </c>
+      <c r="L10">
+        <v>15751.37878752293</v>
+      </c>
+      <c r="M10">
+        <v>22442.73089371516</v>
+      </c>
+      <c r="N10">
+        <v>31995.05157575066</v>
+      </c>
+      <c r="O10">
+        <v>26010.84550053413</v>
+      </c>
+      <c r="P10">
+        <v>10338.03821424218</v>
+      </c>
+      <c r="Q10">
+        <v>18170.13775775516</v>
+      </c>
+      <c r="R10">
+        <v>25681.51155581302</v>
+      </c>
+      <c r="S10">
+        <v>6940.442623038696</v>
+      </c>
+      <c r="T10">
+        <v>7297.566936817724</v>
+      </c>
+      <c r="U10">
+        <v>14238.00955985642</v>
+      </c>
+      <c r="V10">
+        <v>3166.640459159292</v>
+      </c>
+      <c r="W10">
+        <v>1728.832931894541</v>
+      </c>
+      <c r="X10">
+        <v>5145.991889383402</v>
+      </c>
+      <c r="Y10">
+        <v>9973.056871261289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>28959.86744651584</v>
+      </c>
+      <c r="F11">
+        <v>20906.81972870954</v>
+      </c>
+      <c r="G11">
+        <v>29775.66649430125</v>
+      </c>
+      <c r="H11">
+        <v>74235.78353481296</v>
+      </c>
+      <c r="I11">
+        <v>12246.60782521425</v>
+      </c>
+      <c r="J11">
+        <v>34038.82488462747</v>
+      </c>
+      <c r="K11">
+        <v>30691.86838359402</v>
+      </c>
+      <c r="L11">
+        <v>14320.94064277963</v>
+      </c>
+      <c r="M11">
+        <v>18773.88513498318</v>
+      </c>
+      <c r="N11">
+        <v>31240.58292278108</v>
+      </c>
+      <c r="O11">
+        <v>23763.71649011847</v>
+      </c>
+      <c r="P11">
+        <v>8746.970942583603</v>
+      </c>
+      <c r="Q11">
+        <v>12337.58913442652</v>
+      </c>
+      <c r="R11">
+        <v>13764.83782252496</v>
+      </c>
+      <c r="S11">
+        <v>4119.49477493525</v>
+      </c>
+      <c r="T11">
+        <v>3843.119497667736</v>
+      </c>
+      <c r="U11">
+        <v>7962.614272602986</v>
+      </c>
+      <c r="V11">
+        <v>2149.057916612408</v>
+      </c>
+      <c r="W11">
+        <v>960.2384558615853</v>
+      </c>
+      <c r="X11">
+        <v>2689.58607886182</v>
+      </c>
+      <c r="Y11">
+        <v>5764.920215943423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>26745.96258346039</v>
+      </c>
+      <c r="F12">
+        <v>19564.57399481714</v>
+      </c>
+      <c r="G12">
+        <v>27831.10971121797</v>
+      </c>
+      <c r="H12">
+        <v>71012.42960935801</v>
+      </c>
+      <c r="I12">
+        <v>11394.17462789118</v>
+      </c>
+      <c r="J12">
+        <v>32213.18445548406</v>
+      </c>
+      <c r="K12">
+        <v>28649.67699938056</v>
+      </c>
+      <c r="L12">
+        <v>13327.24638675258</v>
+      </c>
+      <c r="M12">
+        <v>17291.89222812583</v>
+      </c>
+      <c r="N12">
+        <v>28052.30856231369</v>
+      </c>
+      <c r="O12">
+        <v>22366.97701879539</v>
+      </c>
+      <c r="P12">
+        <v>7837.823408272667</v>
+      </c>
+      <c r="Q12">
+        <v>12365.23421564537</v>
+      </c>
+      <c r="R12">
+        <v>13390.45306529689</v>
+      </c>
+      <c r="S12">
+        <v>4889.09536852022</v>
+      </c>
+      <c r="T12">
+        <v>4421.477132325878</v>
+      </c>
+      <c r="U12">
+        <v>9310.572500846098</v>
+      </c>
+      <c r="V12">
+        <v>1957.112555959709</v>
+      </c>
+      <c r="W12">
+        <v>1170.367679075724</v>
+      </c>
+      <c r="X12">
+        <v>2483.174663164042</v>
+      </c>
+      <c r="Y12">
+        <v>5139.15728610018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="E13">
+        <v>28153.1788261224</v>
+      </c>
+      <c r="F13">
+        <v>20379.57115712874</v>
+      </c>
+      <c r="G13">
+        <v>29225.79361966079</v>
+      </c>
+      <c r="H13">
+        <v>72612.47126122829</v>
+      </c>
+      <c r="I13">
+        <v>12074.3748606085</v>
+      </c>
+      <c r="J13">
+        <v>32952.26861289272</v>
+      </c>
+      <c r="K13">
+        <v>29727.48442386546</v>
+      </c>
+      <c r="L13">
+        <v>13876.5931205186</v>
+      </c>
+      <c r="M13">
+        <v>18074.36295395449</v>
+      </c>
+      <c r="N13">
+        <v>29240.16888458588</v>
+      </c>
+      <c r="O13">
+        <v>23402.91060095456</v>
+      </c>
+      <c r="P13">
+        <v>8347.842382732373</v>
+      </c>
+      <c r="Q13">
+        <v>13724.14455648498</v>
+      </c>
+      <c r="R13">
+        <v>14138.40268430162</v>
+      </c>
+      <c r="S13">
+        <v>4559.017206036503</v>
+      </c>
+      <c r="T13">
+        <v>4174.579869335495</v>
+      </c>
+      <c r="U13">
+        <v>8733.597075371999</v>
+      </c>
+      <c r="V13">
+        <v>2068.489668597063</v>
+      </c>
+      <c r="W13">
+        <v>1072.781289044891</v>
+      </c>
+      <c r="X13">
+        <v>2592.592672521969</v>
+      </c>
+      <c r="Y13">
+        <v>5414.239097258738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>766466.6666666665</v>
-      </c>
-      <c r="F7">
-        <v>5.031903466666669</v>
-      </c>
-      <c r="G7">
-        <v>0.9954030908194916</v>
-      </c>
-      <c r="H7">
-        <v>26489.91947885673</v>
-      </c>
-      <c r="I7">
-        <v>20330.21343506066</v>
-      </c>
-      <c r="J7">
-        <v>22713.90377154748</v>
-      </c>
-      <c r="K7">
-        <v>66137.84975821167</v>
-      </c>
-      <c r="L7">
-        <v>14271.50925545215</v>
-      </c>
-      <c r="M7">
-        <v>32499.71591709184</v>
-      </c>
-      <c r="N7">
-        <v>29058.95200374617</v>
-      </c>
-      <c r="O7">
-        <v>13503.30638846608</v>
-      </c>
-      <c r="P7">
-        <v>16745.13753024728</v>
-      </c>
-      <c r="Q7">
-        <v>27325.44319871808</v>
-      </c>
-      <c r="R7">
-        <v>22112.85468012896</v>
-      </c>
-      <c r="S7">
-        <v>8747.041110653288</v>
-      </c>
-      <c r="T7">
-        <v>15809.22639499898</v>
-      </c>
-      <c r="U7">
-        <v>22636.51639985564</v>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>30006.25127130489</v>
+      </c>
+      <c r="F14">
+        <v>22700.97583862041</v>
+      </c>
+      <c r="G14">
+        <v>30907.11908546546</v>
+      </c>
+      <c r="H14">
+        <v>76596.93203356868</v>
+      </c>
+      <c r="I14">
+        <v>14325.12418323715</v>
+      </c>
+      <c r="J14">
+        <v>36843.73546308908</v>
+      </c>
+      <c r="K14">
+        <v>33135.71723745903</v>
+      </c>
+      <c r="L14">
+        <v>15379.4400100021</v>
+      </c>
+      <c r="M14">
+        <v>19656.65564063189</v>
+      </c>
+      <c r="N14">
+        <v>31768.67140865381</v>
+      </c>
+      <c r="O14">
+        <v>25739.0707565943</v>
+      </c>
+      <c r="P14">
+        <v>9103.041846864919</v>
+      </c>
+      <c r="Q14">
+        <v>15483.93304088534</v>
+      </c>
+      <c r="R14">
+        <v>15065.01647413721</v>
+      </c>
+      <c r="S14">
+        <v>4711.921390011149</v>
+      </c>
+      <c r="T14">
+        <v>4269.546638277592</v>
+      </c>
+      <c r="U14">
+        <v>8981.468028288742</v>
+      </c>
+      <c r="V14">
+        <v>2275.834838457212</v>
+      </c>
+      <c r="W14">
+        <v>1112.598704299656</v>
+      </c>
+      <c r="X14">
+        <v>3012.372507729621</v>
+      </c>
+      <c r="Y14">
+        <v>6141.522169749638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>28819.71826806465</v>
+      </c>
+      <c r="F15">
+        <v>21098.88089056201</v>
+      </c>
+      <c r="G15">
+        <v>30026.41760863541</v>
+      </c>
+      <c r="H15">
+        <v>75022.66136727131</v>
+      </c>
+      <c r="I15">
+        <v>12319.69389519408</v>
+      </c>
+      <c r="J15">
+        <v>34294.80490870205</v>
+      </c>
+      <c r="K15">
+        <v>31088.24061907512</v>
+      </c>
+      <c r="L15">
+        <v>14389.34424220868</v>
+      </c>
+      <c r="M15">
+        <v>18705.91422945578</v>
+      </c>
+      <c r="N15">
+        <v>31366.37448212049</v>
+      </c>
+      <c r="O15">
+        <v>24095.14555464617</v>
+      </c>
+      <c r="P15">
+        <v>8884.424233017457</v>
+      </c>
+      <c r="Q15">
+        <v>12587.44926261111</v>
+      </c>
+      <c r="R15">
+        <v>14401.33473607939</v>
+      </c>
+      <c r="S15">
+        <v>4743.454191579592</v>
+      </c>
+      <c r="T15">
+        <v>4277.53516023299</v>
+      </c>
+      <c r="U15">
+        <v>9020.989351812583</v>
+      </c>
+      <c r="V15">
+        <v>2234.843899855011</v>
+      </c>
+      <c r="W15">
+        <v>1027.914005371957</v>
+      </c>
+      <c r="X15">
+        <v>2769.610605985483</v>
+      </c>
+      <c r="Y15">
+        <v>5874.957584593789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>29064.97841965496</v>
+      </c>
+      <c r="F16">
+        <v>22766.67790462447</v>
+      </c>
+      <c r="G16">
+        <v>30056.53497157939</v>
+      </c>
+      <c r="H16">
+        <v>75387.81661385887</v>
+      </c>
+      <c r="I16">
+        <v>15116.36786575137</v>
+      </c>
+      <c r="J16">
+        <v>37279.75237467868</v>
+      </c>
+      <c r="K16">
+        <v>32978.23264752638</v>
+      </c>
+      <c r="L16">
+        <v>15441.95397135282</v>
+      </c>
+      <c r="M16">
+        <v>18895.67360852094</v>
+      </c>
+      <c r="N16">
+        <v>32811.59415370958</v>
+      </c>
+      <c r="O16">
+        <v>25889.3021321883</v>
+      </c>
+      <c r="P16">
+        <v>9323.628804770568</v>
+      </c>
+      <c r="Q16">
+        <v>16410.55843287688</v>
+      </c>
+      <c r="R16">
+        <v>14596.56643879901</v>
+      </c>
+      <c r="S16">
+        <v>4433.005010786414</v>
+      </c>
+      <c r="T16">
+        <v>4019.579867562274</v>
+      </c>
+      <c r="U16">
+        <v>8452.584878348687</v>
+      </c>
+      <c r="V16">
+        <v>2571.86395601813</v>
+      </c>
+      <c r="W16">
+        <v>1070.6669996102</v>
+      </c>
+      <c r="X16">
+        <v>3286.835036624911</v>
+      </c>
+      <c r="Y16">
+        <v>6744.297709391081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>21162.91630110799</v>
+      </c>
+      <c r="F17">
+        <v>16148.86797585581</v>
+      </c>
+      <c r="G17">
+        <v>18741.13899586787</v>
+      </c>
+      <c r="H17">
+        <v>57801.23052719712</v>
+      </c>
+      <c r="I17">
+        <v>11760.79956476924</v>
+      </c>
+      <c r="J17">
+        <v>26266.75932685502</v>
+      </c>
+      <c r="K17">
+        <v>23267.66459757786</v>
+      </c>
+      <c r="L17">
+        <v>10850.17909766631</v>
+      </c>
+      <c r="M17">
+        <v>13397.07515054321</v>
+      </c>
+      <c r="N17">
+        <v>21887.52039425441</v>
+      </c>
+      <c r="O17">
+        <v>18203.03905974543</v>
+      </c>
+      <c r="P17">
+        <v>6939.917726836739</v>
+      </c>
+      <c r="Q17">
+        <v>12506.14819419189</v>
+      </c>
+      <c r="R17">
+        <v>19421.6763365314</v>
+      </c>
+      <c r="S17">
+        <v>4406.081967232418</v>
+      </c>
+      <c r="T17">
+        <v>4519.136718395675</v>
+      </c>
+      <c r="U17">
+        <v>8925.218685628093</v>
+      </c>
+      <c r="V17">
+        <v>2114.558410565786</v>
+      </c>
+      <c r="W17">
+        <v>1036.752132859947</v>
+      </c>
+      <c r="X17">
+        <v>2801.422191158896</v>
+      </c>
+      <c r="Y17">
+        <v>5659.791890959707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>30285.55721444998</v>
+      </c>
+      <c r="F18">
+        <v>23486.96613982987</v>
+      </c>
+      <c r="G18">
+        <v>25441.15971474922</v>
+      </c>
+      <c r="H18">
+        <v>73531.37626455491</v>
+      </c>
+      <c r="I18">
+        <v>16730.01006232893</v>
+      </c>
+      <c r="J18">
+        <v>37366.82343553692</v>
+      </c>
+      <c r="K18">
+        <v>33358.65692729399</v>
+      </c>
+      <c r="L18">
+        <v>15554.97866673182</v>
+      </c>
+      <c r="M18">
+        <v>19309.83342406717</v>
+      </c>
+      <c r="N18">
+        <v>30263.40772875964</v>
+      </c>
+      <c r="O18">
+        <v>25299.78813946325</v>
+      </c>
+      <c r="P18">
+        <v>10354.42522305643</v>
+      </c>
+      <c r="Q18">
+        <v>18586.72649520586</v>
+      </c>
+      <c r="R18">
+        <v>25134.76588877067</v>
+      </c>
+      <c r="S18">
+        <v>5041.560903345236</v>
+      </c>
+      <c r="T18">
+        <v>4962.329127995956</v>
+      </c>
+      <c r="U18">
+        <v>10003.89003134119</v>
+      </c>
+      <c r="V18">
+        <v>2755.150297622808</v>
+      </c>
+      <c r="W18">
+        <v>1175.108362027561</v>
+      </c>
+      <c r="X18">
+        <v>3977.874281151207</v>
+      </c>
+      <c r="Y18">
+        <v>7851.898390014396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>28021.28492101223</v>
+      </c>
+      <c r="F19">
+        <v>21354.8061894963</v>
+      </c>
+      <c r="G19">
+        <v>23959.41260402536</v>
+      </c>
+      <c r="H19">
+        <v>67080.94248288299</v>
+      </c>
+      <c r="I19">
+        <v>14323.71813925829</v>
+      </c>
+      <c r="J19">
+        <v>33865.56498888361</v>
+      </c>
+      <c r="K19">
+        <v>30550.53448636668</v>
+      </c>
+      <c r="L19">
+        <v>14104.7614010001</v>
+      </c>
+      <c r="M19">
+        <v>17528.50401613148</v>
+      </c>
+      <c r="N19">
+        <v>29825.4014731402</v>
+      </c>
+      <c r="O19">
+        <v>22835.73684117821</v>
+      </c>
+      <c r="P19">
+        <v>8946.780382066701</v>
+      </c>
+      <c r="Q19">
+        <v>16334.80449559921</v>
+      </c>
+      <c r="R19">
+        <v>23353.10697426487</v>
+      </c>
+      <c r="S19">
+        <v>4857.823531057246</v>
+      </c>
+      <c r="T19">
+        <v>4806.993145074541</v>
+      </c>
+      <c r="U19">
+        <v>9664.816676131788</v>
+      </c>
+      <c r="V19">
+        <v>2386.833961029262</v>
+      </c>
+      <c r="W19">
+        <v>1168.631027574507</v>
+      </c>
+      <c r="X19">
+        <v>3404.886275815531</v>
+      </c>
+      <c r="Y19">
+        <v>6792.637153325617</v>
       </c>
     </row>
   </sheetData>
